--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -6,17 +6,18 @@
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId4"/>
+    <sheet name="EmployeeMaster" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Environment</t>
   </si>
   <si>
-    <t>Username</t>
+    <t>MobileNumber</t>
   </si>
   <si>
     <t>Password</t>
@@ -30,6 +31,39 @@
   <si>
     <t>STAGE</t>
   </si>
+  <si>
+    <t xml:space="preserve">AdharNumber
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeCode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrganisationName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignationName
+</t>
+  </si>
+  <si>
+    <t>Sastry</t>
+  </si>
+  <si>
+    <t>School Education</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
 </sst>
 </file>
 
@@ -38,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -56,16 +90,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Segoe UI"/>
     </font>
+    <font>
+      <i val="1"/>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,8 +118,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -148,13 +206,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -167,25 +330,52 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -207,8 +397,14 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff454545"/>
       <rgbColor rgb="ff1a1a1a"/>
+      <rgbColor rgb="ff66177a"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -407,17 +603,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -445,10 +641,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -696,12 +892,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -988,7 +1184,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1016,10 +1212,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1377,4 +1573,137 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="11" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.55" customHeight="1">
+      <c r="A1" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" s="13">
+        <v>200991902776</v>
+      </c>
+      <c r="B2" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="15">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -7,16 +7,21 @@
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId4"/>
     <sheet name="EmployeeMaster" sheetId="2" r:id="rId5"/>
+    <sheet name="Role" sheetId="3" r:id="rId6"/>
+    <sheet name="Activity" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Environment</t>
   </si>
   <si>
+    <t>LoginOption</t>
+  </si>
+  <si>
     <t>MobileNumber</t>
   </si>
   <si>
@@ -24,6 +29,10 @@
   </si>
   <si>
     <t>Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with Mobile Number
+</t>
   </si>
   <si>
     <t>TEST</t>
@@ -63,6 +72,58 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepartmentName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleName
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleDesc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoleLevel
+</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>Qwerty</t>
+  </si>
+  <si>
+    <t>Secretariat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityName
+</t>
+  </si>
+  <si>
+    <t>AccessGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActvityDescription
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActivityLevelID
+</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>AgriDevApp:SectionHead</t>
+  </si>
+  <si>
+    <t>District Unit Office</t>
   </si>
 </sst>
 </file>
@@ -72,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -89,20 +150,32 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="12"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Segoe UI"/>
     </font>
     <font>
       <i val="1"/>
       <sz val="12"/>
-      <color indexed="14"/>
+      <color indexed="15"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -126,13 +199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -208,13 +281,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
         <color indexed="17"/>
@@ -223,7 +311,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
       </left>
       <right style="thin">
         <color indexed="17"/>
@@ -232,7 +365,7 @@
         <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,73 +374,13 @@
         <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
         <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
         <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -317,7 +390,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -339,13 +412,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -354,7 +430,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -376,6 +452,24 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -398,6 +492,7 @@
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff007f01"/>
       <rgbColor rgb="ff454545"/>
       <rgbColor rgb="ff1a1a1a"/>
       <rgbColor rgb="ff66177a"/>
@@ -1466,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1474,10 +1569,11 @@
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6719" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6719" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1490,46 +1586,55 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
         <v>9032660870</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="9">
         <v>123456789</v>
       </c>
-      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
+      <c r="A4" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>5</v>
+      <c r="A5" t="s" s="11">
+        <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="5"/>
@@ -1537,6 +1642,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="5"/>
@@ -1544,6 +1650,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="5"/>
@@ -1551,6 +1658,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="5"/>
@@ -1558,6 +1666,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="5"/>
@@ -1565,6 +1674,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,118 +1696,350 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="11" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="12" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.55" customHeight="1">
-      <c r="A1" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="12">
+      <c r="A1" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="B1" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="C1" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="D1" t="s" s="13">
         <v>11</v>
       </c>
+      <c r="E1" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" s="13">
-        <v>200991902776</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="C2" s="15">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="15">
-        <v>123456789</v>
-      </c>
-      <c r="E2" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="16">
+      <c r="A2" s="14">
+        <v>200991902758</v>
+      </c>
+      <c r="B2" t="s" s="15">
         <v>14</v>
       </c>
+      <c r="C2" s="16">
+        <v>54321</v>
+      </c>
+      <c r="D2" s="16">
+        <v>987654321</v>
+      </c>
+      <c r="E2" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.55" customHeight="1">
+      <c r="A1" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.1719" style="25" customWidth="1"/>
+    <col min="5" max="5" width="17.8516" style="25" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.55" customHeight="1">
+      <c r="A1" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s" s="22">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -9,12 +9,13 @@
     <sheet name="EmployeeMaster" sheetId="2" r:id="rId5"/>
     <sheet name="Role" sheetId="3" r:id="rId6"/>
     <sheet name="Activity" sheetId="4" r:id="rId7"/>
+    <sheet name="EmployeeRoleMapping" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Environment</t>
   </si>
@@ -124,6 +125,13 @@
   </si>
   <si>
     <t>District Unit Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrganizationName
+</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
   </si>
 </sst>
 </file>
@@ -133,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,8 +185,20 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +229,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -384,13 +416,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -470,6 +607,39 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -496,6 +666,11 @@
       <rgbColor rgb="ff454545"/>
       <rgbColor rgb="ff1a1a1a"/>
       <rgbColor rgb="ff66177a"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff007f01"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -2048,4 +2223,112 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="27" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.55" customHeight="1">
+      <c r="A1" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="33">
+        <v>14</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>